--- a/trip.xlsx
+++ b/trip.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivytry/ivy/study/git/blog/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="北京" sheetId="2" r:id="rId1"/>
     <sheet name="天津" sheetId="1" r:id="rId2"/>
     <sheet name="内蒙古" sheetId="3" r:id="rId3"/>
     <sheet name="云南" sheetId="5" r:id="rId4"/>
-    <sheet name="幸福人寿" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <si>
     <t>八达岭长城</t>
   </si>
@@ -498,66 +507,18 @@
   </si>
   <si>
     <t>到仁怀 看中医 和爸爸一起去成都/从遵义出发去成都</t>
-  </si>
-  <si>
-    <t>提交日期</t>
-  </si>
-  <si>
-    <t>审核通过</t>
-  </si>
-  <si>
-    <t>退回</t>
-  </si>
-  <si>
-    <t>二次提交</t>
-  </si>
-  <si>
-    <t>二审通过</t>
-  </si>
-  <si>
-    <t>发票1</t>
-  </si>
-  <si>
-    <t>发票2</t>
-  </si>
-  <si>
-    <t>赔付总额</t>
-  </si>
-  <si>
-    <t>结案</t>
-  </si>
-  <si>
-    <t>短信</t>
-  </si>
-  <si>
-    <t>到账额</t>
-  </si>
-  <si>
-    <t>到账时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -568,6 +529,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -575,6 +537,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -583,6 +546,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -590,155 +554,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,246 +575,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -994,340 +618,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1338,7 +672,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1355,7 +689,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1627,24 +961,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.8333333333333" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1663,241 +997,240 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="59.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="83.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="15.1666666666667" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
     <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="18" max="18" width="12.1666666666667" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="24" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="26" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="26" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="26" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="26" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="24" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="24" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="24" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="24"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="24" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="24" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="24" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="24" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="26"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="24"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1908,143 +1241,140 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.16666666666667" customWidth="1"/>
-    <col min="3" max="4" width="5.16666666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="19"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="20" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="13:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="13:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.16666666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="5.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.16666666666667" customWidth="1"/>
-    <col min="5" max="5" width="61.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="8.16666666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
-    <col min="10" max="10" width="5.16666666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.16666666666667" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
     <col min="12" max="12" width="5.5" customWidth="1"/>
     <col min="13" max="13" width="54.5" customWidth="1"/>
-    <col min="14" max="14" width="7.16666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.16666666666667" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>43123</v>
       </c>
       <c r="B2" t="s">
@@ -2057,148 +1387,148 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>43124</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>43125</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="8">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>43126</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>43127</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>43128</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>43129</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>43130</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>43131</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="H10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>43132</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>43133</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
@@ -2207,70 +1537,70 @@
       <c r="F12">
         <v>1500</v>
       </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>43134</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="8"/>
       <c r="M13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>43135</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="8"/>
       <c r="M14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="8">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>43136</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="8"/>
       <c r="M15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="8">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>43137</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E16" t="s">
@@ -2280,29 +1610,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>43138</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="8">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>43139</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -2312,14 +1642,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>43140</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E19" t="s">
@@ -2328,16 +1658,16 @@
       <c r="F19">
         <v>1500</v>
       </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>43141</v>
       </c>
       <c r="B20" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E20" t="s">
@@ -2347,8 +1677,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>43142</v>
       </c>
       <c r="B21" t="s">
@@ -2364,18 +1694,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="13:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>43585</v>
       </c>
       <c r="B24" t="s">
@@ -2391,89 +1721,89 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="8">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>43586</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>79</v>
       </c>
       <c r="M25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>43587</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>43588</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>43589</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43590</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>43591</v>
       </c>
       <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>43680</v>
       </c>
       <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E33" t="s">
@@ -2483,14 +1813,14 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>43681</v>
       </c>
       <c r="B34" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E34" t="s">
@@ -2500,14 +1830,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>43682</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E35" t="s">
@@ -2517,14 +1847,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>43683</v>
       </c>
       <c r="B36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E36" t="s">
@@ -2534,14 +1864,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>43684</v>
       </c>
       <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E37" t="s">
@@ -2551,14 +1881,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>43685</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E38" t="s">
@@ -2568,14 +1898,14 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>43686</v>
       </c>
       <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E39" t="s">
@@ -2585,411 +1915,411 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>43687</v>
       </c>
       <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>43688</v>
       </c>
       <c r="B41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <v>43694</v>
       </c>
       <c r="B43" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <v>43695</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <v>43739</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>43740</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>43741</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <v>43742</v>
       </c>
       <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
         <v>43743</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <v>43744</v>
       </c>
       <c r="B51" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E51" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
         <v>43745</v>
       </c>
       <c r="B52" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
         <v>43746</v>
       </c>
       <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
         <v>43747</v>
       </c>
       <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E54" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
         <v>43748</v>
       </c>
       <c r="B55" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E55" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
         <v>43749</v>
       </c>
       <c r="B56" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <v>43750</v>
       </c>
       <c r="B57" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
         <v>43751</v>
       </c>
       <c r="B58" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
         <v>43739</v>
       </c>
       <c r="B60" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E60" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
         <v>43740</v>
       </c>
       <c r="B61" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E61" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
         <v>43741</v>
       </c>
       <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
         <v>43742</v>
       </c>
       <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
         <v>43743</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E64" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
         <v>43744</v>
       </c>
       <c r="B65" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E65" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
         <v>43745</v>
       </c>
       <c r="B66" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
         <v>43746</v>
       </c>
       <c r="B67" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E67" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
         <v>43747</v>
       </c>
       <c r="B68" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
         <v>43748</v>
       </c>
       <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
         <v>43749</v>
       </c>
       <c r="B70" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="12" t="s">
         <v>119</v>
       </c>
       <c r="E70" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
         <v>43750</v>
       </c>
       <c r="B71" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E71" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
         <v>43751</v>
       </c>
       <c r="B72" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E72" t="s">
@@ -2997,310 +2327,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:M10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
-    <col min="10" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="2">
-        <v>20210428</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20210429</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20210507</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20210507</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>100.53</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <f>G3+H3</f>
-        <v>100.53</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="2">
-        <v>20210417</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20210418</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20210421</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20210430</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20210501</v>
-      </c>
-      <c r="G4" s="2">
-        <v>290.8</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <f>G4+H4</f>
-        <v>290.8</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="3">
-        <v>20210410</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20210411</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>311.85</v>
-      </c>
-      <c r="H5" s="3">
-        <v>174</v>
-      </c>
-      <c r="I5" s="3">
-        <f>G5+H5</f>
-        <v>485.85</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>20210507</v>
-      </c>
-      <c r="L5" s="3">
-        <v>485.85</v>
-      </c>
-      <c r="M5" s="3">
-        <v>20210506</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="3">
-        <v>20210409</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20210409</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>186.61</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <f>G6+H6</f>
-        <v>186.61</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>20210507</v>
-      </c>
-      <c r="L6" s="3">
-        <v>186.61</v>
-      </c>
-      <c r="M6" s="3">
-        <v>20210506</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="3">
-        <v>20210405</v>
-      </c>
-      <c r="C7" s="3">
-        <v>20210407</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>320.63</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <f>G7+H7</f>
-        <v>320.63</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
-        <v>20210507</v>
-      </c>
-      <c r="L7" s="3">
-        <v>320.63</v>
-      </c>
-      <c r="M7" s="3">
-        <v>20210506</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="3">
-        <v>20210405</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20210407</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>82.5</v>
-      </c>
-      <c r="H8" s="3">
-        <v>238.13</v>
-      </c>
-      <c r="I8" s="3">
-        <f>G8+H8</f>
-        <v>320.63</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>20210507</v>
-      </c>
-      <c r="L8" s="3">
-        <v>320.63</v>
-      </c>
-      <c r="M8" s="3">
-        <v>20210506</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="3">
-        <v>20210306</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20210309</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>63.05</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <f>G9+H9</f>
-        <v>63.05</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20210316</v>
-      </c>
-      <c r="K9" s="3">
-        <v>20210318</v>
-      </c>
-      <c r="L9" s="3">
-        <v>63.05</v>
-      </c>
-      <c r="M9" s="3">
-        <v>20210317</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="3">
-        <v>20210131</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20210203</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>106.4</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <f>G10+H10</f>
-        <v>106.4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>20210209</v>
-      </c>
-      <c r="K10" s="3">
-        <v>20210221</v>
-      </c>
-      <c r="L10" s="3">
-        <v>106.4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>20210220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>